--- a/biology/Zoologie/Antipathidae/Antipathidae.xlsx
+++ b/biology/Zoologie/Antipathidae/Antipathidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Antipathidae sont une famille de cnidaires du groupe des « coraux noirs » (ordre des Antipatharia). 
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Typique de leur ordre, l'exosquelette de ces espèces est d'aspect sombre sous l'épiderme (coenenchyme). Le squelette est aussi recouvert par de fines petites épines. Les polypes ont 6 tentacules[1].
-Ces coraux noirs sont parfois utilisés en bijouterie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Typique de leur ordre, l'exosquelette de ces espèces est d'aspect sombre sous l'épiderme (coenenchyme). Le squelette est aussi recouvert par de fines petites épines. Les polypes ont 6 tentacules.
+Ces coraux noirs sont parfois utilisés en bijouterie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Antipathes dichotoma
